--- a/biology/Histoire de la zoologie et de la botanique/Frederick_Campion_Steward/Frederick_Campion_Steward.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_Campion_Steward/Frederick_Campion_Steward.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick « Camp » Campion Steward, né le 16 juin 1904 et mort le 13 septembre 1993, est un botaniste britannique, spécialiste de la physiologie végétale.
 Il étudie particulièrement la différenciation cellulaire et les facteurs de croissance.
